--- a/Boletines hidrológicos Mensuales/Informes Pluviométricos Nacionales Mensuales/Informe Pluviométrico Nacional Totales al 31 de Agosto del 2015.xlsx
+++ b/Boletines hidrológicos Mensuales/Informes Pluviométricos Nacionales Mensuales/Informe Pluviométrico Nacional Totales al 31 de Agosto del 2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="229">
   <si>
     <t>Estaciones</t>
   </si>
@@ -25,11 +25,11 @@
     <t>Agosto</t>
   </si>
   <si>
+    <t>2016 
+[mm]</t>
+  </si>
+  <si>
     <t>2015 
-[mm]</t>
-  </si>
-  <si>
-    <t>2014 
 [mm]</t>
   </si>
   <si>
@@ -38,7 +38,8 @@
 [mm]</t>
   </si>
   <si>
-    <t>Exceso o 
+    <t>Exceso 
+o 
 Déficit 
 %</t>
   </si>
@@ -211,366 +212,312 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>115.3</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>116.4</t>
+  </si>
+  <si>
+    <t>294.1</t>
+  </si>
+  <si>
+    <t>137.9</t>
+  </si>
+  <si>
+    <t>191.5</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>86.8</t>
+  </si>
+  <si>
+    <t>143.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>79.5</t>
+  </si>
+  <si>
+    <t>130.3</t>
+  </si>
+  <si>
+    <t>202.6</t>
+  </si>
+  <si>
+    <t>267.5</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>191.7</t>
+  </si>
+  <si>
+    <t>338.5</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>288.2</t>
+  </si>
+  <si>
+    <t>227.6</t>
+  </si>
+  <si>
+    <t>401.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>403.1</t>
+  </si>
+  <si>
+    <t>405.2</t>
+  </si>
+  <si>
+    <t>305.8</t>
+  </si>
+  <si>
+    <t>694.3</t>
+  </si>
+  <si>
+    <t>373.1</t>
+  </si>
+  <si>
+    <t>295.8</t>
+  </si>
+  <si>
+    <t>497.0</t>
+  </si>
+  <si>
+    <t>577.1</t>
+  </si>
+  <si>
+    <t>603.1</t>
+  </si>
+  <si>
+    <t>536.9</t>
+  </si>
+  <si>
+    <t>607.8</t>
+  </si>
+  <si>
+    <t>547.4</t>
+  </si>
+  <si>
+    <t>542.5</t>
+  </si>
+  <si>
+    <t>992.3</t>
+  </si>
+  <si>
+    <t>495.7</t>
+  </si>
+  <si>
+    <t>627.7</t>
+  </si>
+  <si>
+    <t>268.9</t>
+  </si>
+  <si>
+    <t>300.8</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>111.1</t>
+  </si>
+  <si>
+    <t>150.8</t>
+  </si>
+  <si>
+    <t>134.6</t>
+  </si>
+  <si>
+    <t>64.2</t>
+  </si>
+  <si>
+    <t>119.4</t>
+  </si>
+  <si>
+    <t>169.5</t>
+  </si>
+  <si>
+    <t>197.5</t>
+  </si>
+  <si>
+    <t>177.2</t>
+  </si>
+  <si>
+    <t>254.1</t>
+  </si>
+  <si>
+    <t>235.7</t>
+  </si>
+  <si>
+    <t>145.7</t>
+  </si>
+  <si>
+    <t>451.8</t>
+  </si>
+  <si>
+    <t>353.9</t>
+  </si>
+  <si>
+    <t>213.7</t>
+  </si>
+  <si>
+    <t>144.8</t>
+  </si>
+  <si>
+    <t>218.1</t>
+  </si>
+  <si>
+    <t>346.8</t>
+  </si>
+  <si>
+    <t>382.5</t>
+  </si>
+  <si>
+    <t>413.0</t>
+  </si>
+  <si>
+    <t>412.0</t>
+  </si>
+  <si>
+    <t>1017.8</t>
+  </si>
+  <si>
+    <t>615.7</t>
+  </si>
+  <si>
+    <t>621.5</t>
+  </si>
+  <si>
+    <t>905.9</t>
+  </si>
+  <si>
+    <t>718.4</t>
+  </si>
+  <si>
+    <t>823.2</t>
+  </si>
+  <si>
+    <t>720.6</t>
+  </si>
+  <si>
+    <t>1039.0</t>
+  </si>
+  <si>
+    <t>691.1</t>
+  </si>
+  <si>
+    <t>898.8</t>
+  </si>
+  <si>
+    <t>1724.5</t>
+  </si>
+  <si>
+    <t>945.4</t>
+  </si>
+  <si>
+    <t>1237.7</t>
+  </si>
+  <si>
+    <t>948.2</t>
+  </si>
+  <si>
+    <t>669.6</t>
+  </si>
+  <si>
+    <t>133.6</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>63.8</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>68.5</t>
-  </si>
-  <si>
-    <t>106.2</t>
-  </si>
-  <si>
-    <t>109.8</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>183.7</t>
-  </si>
-  <si>
-    <t>145.5</t>
-  </si>
-  <si>
-    <t>101.3</t>
-  </si>
-  <si>
-    <t>313.3</t>
-  </si>
-  <si>
-    <t>218.5</t>
-  </si>
-  <si>
-    <t>137.9</t>
-  </si>
-  <si>
-    <t>103.5</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>203.5</t>
-  </si>
-  <si>
-    <t>183.4</t>
-  </si>
-  <si>
-    <t>183.2</t>
-  </si>
-  <si>
-    <t>144.1</t>
-  </si>
-  <si>
-    <t>413.0</t>
-  </si>
-  <si>
-    <t>215.4</t>
-  </si>
-  <si>
-    <t>179.6</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>221.1</t>
-  </si>
-  <si>
-    <t>225.9</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>277.0</t>
-  </si>
-  <si>
-    <t>219.3</t>
-  </si>
-  <si>
-    <t>202.2</t>
-  </si>
-  <si>
-    <t>446.0</t>
-  </si>
-  <si>
-    <t>255.4</t>
-  </si>
-  <si>
-    <t>312.5</t>
-  </si>
-  <si>
-    <t>158.4</t>
-  </si>
-  <si>
-    <t>82.6</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>111.1</t>
-  </si>
-  <si>
-    <t>148.8</t>
-  </si>
-  <si>
-    <t>134.6</t>
-  </si>
-  <si>
-    <t>64.2</t>
-  </si>
-  <si>
-    <t>119.4</t>
-  </si>
-  <si>
-    <t>169.5</t>
-  </si>
-  <si>
-    <t>197.5</t>
-  </si>
-  <si>
-    <t>177.2</t>
-  </si>
-  <si>
-    <t>254.1</t>
-  </si>
-  <si>
-    <t>224.7</t>
-  </si>
-  <si>
-    <t>145.7</t>
-  </si>
-  <si>
-    <t>422.3</t>
-  </si>
-  <si>
-    <t>353.9</t>
-  </si>
-  <si>
-    <t>213.7</t>
-  </si>
-  <si>
-    <t>144.8</t>
-  </si>
-  <si>
-    <t>218.1</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>382.5</t>
-  </si>
-  <si>
-    <t>412.0</t>
-  </si>
-  <si>
-    <t>1017.8</t>
-  </si>
-  <si>
-    <t>615.7</t>
-  </si>
-  <si>
-    <t>621.5</t>
-  </si>
-  <si>
-    <t>905.9</t>
-  </si>
-  <si>
-    <t>726.2</t>
-  </si>
-  <si>
-    <t>823.2</t>
-  </si>
-  <si>
-    <t>720.6</t>
-  </si>
-  <si>
-    <t>1039.0</t>
-  </si>
-  <si>
-    <t>666.1</t>
-  </si>
-  <si>
-    <t>899.2</t>
-  </si>
-  <si>
-    <t>1724.5</t>
-  </si>
-  <si>
-    <t>945.4</t>
-  </si>
-  <si>
-    <t>1237.7</t>
-  </si>
-  <si>
-    <t>948.2</t>
-  </si>
-  <si>
-    <t>663.8</t>
-  </si>
-  <si>
-    <t>41.2</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>42.4</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>75.2</t>
-  </si>
-  <si>
-    <t>59.1</t>
-  </si>
-  <si>
-    <t>67.4</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>70.2</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>173.5</t>
-  </si>
-  <si>
-    <t>89.7</t>
-  </si>
-  <si>
-    <t>469.6</t>
-  </si>
-  <si>
-    <t>242.8</t>
-  </si>
-  <si>
-    <t>200.9</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>206.7</t>
-  </si>
-  <si>
-    <t>412.1</t>
-  </si>
-  <si>
-    <t>448.1</t>
-  </si>
-  <si>
-    <t>495.7</t>
-  </si>
-  <si>
-    <t>544.4</t>
-  </si>
-  <si>
-    <t>1092.8</t>
-  </si>
-  <si>
-    <t>751.1</t>
-  </si>
-  <si>
-    <t>792.7</t>
-  </si>
-  <si>
-    <t>1066.6</t>
-  </si>
-  <si>
-    <t>923.4</t>
-  </si>
-  <si>
-    <t>1121.8</t>
-  </si>
-  <si>
-    <t>1064.9</t>
-  </si>
-  <si>
-    <t>1133.9</t>
-  </si>
-  <si>
-    <t>914.2</t>
-  </si>
-  <si>
-    <t>929.1</t>
-  </si>
-  <si>
-    <t>1690.4</t>
-  </si>
-  <si>
-    <t>1097.6</t>
-  </si>
-  <si>
-    <t>1462.0</t>
-  </si>
-  <si>
-    <t>756.1</t>
-  </si>
-  <si>
-    <t>361.8</t>
-  </si>
-  <si>
-    <t>133.6</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
     <t>19.0</t>
   </si>
   <si>
@@ -679,100 +626,88 @@
     <t>370.6</t>
   </si>
   <si>
-    <t>-67</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>&gt; 200</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>-31</t>
-  </si>
-  <si>
-    <t>-33</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-79</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>-78</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>-68</t>
   </si>
   <si>
     <t>-39</t>
   </si>
   <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-62</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
     <t>-41</t>
   </si>
   <si>
     <t>-51</t>
   </si>
   <si>
-    <t>-42</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>79</t>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>-19</t>
   </si>
 </sst>
 </file>
@@ -1170,16 +1105,16 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1193,16 +1128,16 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1216,16 +1151,16 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1236,19 +1171,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1259,19 +1194,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1282,19 +1217,19 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1305,19 +1240,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1328,19 +1263,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1351,19 +1286,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1374,19 +1309,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1397,19 +1332,19 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1420,19 +1355,19 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1443,19 +1378,19 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1466,19 +1401,19 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1489,19 +1424,19 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1512,19 +1447,19 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1535,19 +1470,19 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1558,19 +1493,19 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1581,19 +1516,19 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1604,19 +1539,19 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1627,19 +1562,19 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1650,19 +1585,19 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1673,19 +1608,19 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1696,19 +1631,19 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1719,19 +1654,19 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1742,19 +1677,19 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1765,19 +1700,19 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1788,19 +1723,19 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1811,19 +1746,19 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1834,19 +1769,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1857,19 +1792,19 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1880,19 +1815,19 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
         <v>210</v>
-      </c>
-      <c r="G33" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1903,19 +1838,19 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1926,19 +1861,19 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1949,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1972,19 +1907,19 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1995,19 +1930,19 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2018,19 +1953,19 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2041,19 +1976,19 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2064,19 +1999,19 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2087,19 +2022,19 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
